--- a/Data/test.xlsx
+++ b/Data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myfiles\Workspace\KSTU.ClusterAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,60 +19,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Ars</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Clarenc</t>
-  </si>
-  <si>
-    <t>Debian</t>
-  </si>
-  <si>
-    <t>Fobos</t>
-  </si>
-  <si>
-    <t>Gerald</t>
-  </si>
-  <si>
-    <t>Kyle</t>
-  </si>
-  <si>
-    <t>Lizy</t>
-  </si>
-  <si>
-    <t>Morty</t>
-  </si>
-  <si>
-    <t>Nia</t>
-  </si>
-  <si>
-    <t>Ostiv</t>
-  </si>
-  <si>
-    <t>Petr</t>
-  </si>
-  <si>
-    <t>Qliv</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>Test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Arstan</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>Camilla</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Eavan</t>
+  </si>
+  <si>
+    <t>Gabby</t>
+  </si>
+  <si>
+    <t>Gabriella</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Rahel</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Amily</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Piter</t>
+  </si>
+  <si>
+    <t>Marry</t>
+  </si>
+  <si>
+    <t>Lorie</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>Наука</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Инженерия</t>
+  </si>
+  <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>Альпинизм</t>
+  </si>
+  <si>
+    <t>Кино</t>
+  </si>
+  <si>
+    <t>Сериалы</t>
   </si>
 </sst>
 </file>
@@ -879,188 +927,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>78</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>32</v>
+      </c>
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L5">
+        <v>45</v>
+      </c>
+      <c r="M5">
+        <v>65</v>
+      </c>
+      <c r="N5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>95</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>98</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <v>95</v>
+      </c>
+      <c r="K8">
+        <v>47</v>
+      </c>
+      <c r="L8">
+        <v>65</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
       <c r="C9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>64</v>
+      </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>79</v>
+      </c>
+      <c r="K9">
+        <v>97</v>
+      </c>
+      <c r="L9">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>600</v>
-      </c>
-      <c r="C10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>700</v>
-      </c>
-      <c r="C11">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>99</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>78</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>98</v>
+      </c>
+      <c r="F13">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>95</v>
+      </c>
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>800</v>
-      </c>
-      <c r="C12">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <v>94</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>98</v>
+      </c>
+      <c r="L15">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>95</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>900</v>
-      </c>
-      <c r="C13">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>39</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>45</v>
+      </c>
+      <c r="K16">
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>900</v>
-      </c>
-      <c r="C14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>900</v>
-      </c>
-      <c r="C15">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17">
+        <v>49</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>65</v>
+      </c>
+      <c r="N17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>51</v>
+      </c>
+      <c r="H18">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <v>69</v>
+      </c>
+      <c r="N18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>900</v>
-      </c>
-      <c r="C16">
-        <v>12000</v>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>51</v>
+      </c>
+      <c r="J19">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>65</v>
+      </c>
+      <c r="L19">
+        <v>51</v>
+      </c>
+      <c r="M19">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>67</v>
+      </c>
+      <c r="F20">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+      <c r="I20">
+        <v>66</v>
+      </c>
+      <c r="J20">
+        <v>33</v>
+      </c>
+      <c r="K20">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>64</v>
+      </c>
+      <c r="M20">
+        <v>77</v>
+      </c>
+      <c r="N20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>81</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+      <c r="K21">
+        <v>65</v>
+      </c>
+      <c r="L21">
+        <v>77</v>
+      </c>
+      <c r="M21">
+        <v>81</v>
+      </c>
+      <c r="N21">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
